--- a/secuencias/sti/ONE COLUMBA.xlsx
+++ b/secuencias/sti/ONE COLUMBA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Sigla</t>
   </si>
@@ -61,9 +61,6 @@
     <t>TCLU</t>
   </si>
   <si>
-    <t>FFAU</t>
-  </si>
-  <si>
     <t>ONEU</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>FDCU</t>
   </si>
   <si>
-    <t>NYKU</t>
-  </si>
-  <si>
     <t>A36</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>24/05/2024 20:12</t>
   </si>
   <si>
-    <t>24/05/2024 19:14</t>
-  </si>
-  <si>
     <t>24/05/2024 19:04</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
   </si>
   <si>
     <t>24/05/2024 18:58</t>
-  </si>
-  <si>
-    <t>24/05/2024 11:47</t>
   </si>
   <si>
     <t>ONE COLUMBA</t>
@@ -473,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,28 +513,28 @@
         <v>980579</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -557,28 +545,28 @@
         <v>538733</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -589,28 +577,28 @@
         <v>631528</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -618,31 +606,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>142477</v>
+        <v>516704</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -650,31 +638,31 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>516704</v>
+        <v>658622</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -682,95 +670,31 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>658622</v>
+        <v>45617</v>
       </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>45617</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>517572</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
